--- a/biology/Zoologie/Elasmostethus_interstinctus/Elasmostethus_interstinctus.xlsx
+++ b/biology/Zoologie/Elasmostethus_interstinctus/Elasmostethus_interstinctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punaise du bouleau
 Elasmostethus interstinctus, la Punaise du bouleau, est une espèce d'insectes du sous-ordre des hétéroptères (punaises) de la famille des Acanthosomatidae.
@@ -512,11 +524,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Elasmostethus interstinctus a été décrite pour la première fois par le naturaliste suédois Carl von Linné en 1758, sous le protonyme de Cimex interstinctus.
-Publication originale
-(la) Carl von Linné, Systema Naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis. Editio Decima, Reformata. Tomus I., Holmiæ (Stockholm): impensis direct. Laurentii Salvii., 1758, 824 p. (lire en ligne), p. 445</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Elasmostethus interstinctus a été décrite pour la première fois par le naturaliste suédois Carl von Linné en 1758, sous le protonyme de Cimex interstinctus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elasmostethus_interstinctus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elasmostethus_interstinctus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(la) Carl von Linné, Systema Naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis. Editio Decima, Reformata. Tomus I., Holmiæ (Stockholm): impensis direct. Laurentii Salvii., 1758, 824 p. (lire en ligne), p. 445</t>
         </is>
       </c>
     </row>
